--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/0_fold/81.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/0_fold/81.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-16.23290329429691</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5.540508828480365</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-3.842655420758248</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-9.075910812718433</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-8.449697226846446</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-4.299747628710369</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-16.6359095310479</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.393069656218821</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-4.137273540927343</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-9.630055648563047</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-8.329943050709632</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-4.23242768516929</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-17.03306900354842</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5.247769513091036</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-4.42761737813141</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-10.05825456530633</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-8.335877888966989</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-4.582941625776245</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-17.40987325276343</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5.109916295094259</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-4.703080508604125</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-10.75062201328707</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-8.344426226380179</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-4.796074547594523</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-17.76294014385046</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>4.980747350726302</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-4.961190419221412</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-11.28625444738833</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-8.246403854872106</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-5.175665009672898</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-18.07051055895036</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4.868223217650693</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-5.186040084692846</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-11.80938829322841</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-8.222106596396893</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-5.42098636576951</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-18.35504638789156</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4.764126250228908</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-5.394050292473352</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-12.44402675455937</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-8.094536359630965</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-5.794061674226598</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-18.62456021009646</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.665525059390544</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-5.591078646917051</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-13.01969542736244</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-8.012765728198417</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-6.20804208336692</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-18.88556960184717</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4.570035200517736</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-5.781889828808477</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-13.54090014327526</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-7.944340095624969</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-6.267658387438116</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-19.17810478604466</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4.463011682065073</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-5.995747973402999</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-13.97053458627898</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-7.868958661970214</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-6.2849890933362</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-19.50277498961997</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.344231619356743</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-6.233098456669534</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-14.37076564755089</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-7.726401187969135</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-6.3852886915395</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-19.87448371377756</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4.20824259086423</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-6.50483649835505</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-15.02036165852918</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-7.609924447461496</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-6.270452487873261</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-20.32150861038184</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.044699263924699</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-6.831634504678988</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-15.49106936078247</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-7.367718102556949</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-5.899416475468364</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-20.81965620653284</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.862452781009936</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-7.195805812616947</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-16.29000991605972</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-7.182611951094773</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-5.556155940137953</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-21.37593029558762</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3.658940815780827</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-7.602470552441703</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-16.90481818971108</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-6.99606485453543</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-5.153441317467769</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-21.97973944196388</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.438038227614</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-8.043885844374763</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-17.90084699075016</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-6.707314616186085</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-4.662927716550576</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-22.58994460032793</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.214795668927469</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-8.489976947391076</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-18.45844252378862</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-6.452476496756248</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-4.414550726921216</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-23.2034977983593</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.990328235407168</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-8.938515638218908</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-19.29468411946705</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-6.137438847246464</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-4.111847684992416</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-23.78759871160411</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.776635872082186</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-9.365523206232218</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-19.8788980227226</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-5.803907481285479</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-3.787099720317608</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-24.30883422354065</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2.585942712956882</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-9.746572958539168</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-20.76853938389948</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-5.55040634684376</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-3.665440482294931</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-24.77002773872958</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.417215820092781</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-10.08372894792178</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-21.39487715237437</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-5.344497404795082</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-3.556616229328009</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-25.13039569524418</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2.285375792885146</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-10.34717630986201</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-21.89262890140147</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-5.073456418966486</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-3.672127784284259</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-25.37966817252428</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>2.194179864965868</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-10.52940720846603</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-22.29690841843624</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-4.977145454512598</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-3.730201374134154</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-25.52395175733928</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2.141393951557793</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-10.63488587021617</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-22.70481524315116</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-4.834783061034878</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-3.845087235983482</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-25.53465767701996</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>2.137477208361104</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-10.64271244371148</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-22.84751651608087</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-4.790409076001715</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-3.837290901238499</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-25.42540951236976</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2.177445470631621</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-10.56284646158513</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-22.98719276837345</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-4.868704706179518</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-4.062113359355944</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-25.20492335932852</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2.258109968932226</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-10.4016598346584</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-22.95619536379094</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-4.86278436435171</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-4.175360501163333</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-24.86412072694208</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2.382792054323028</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-10.15251572286538</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-22.90920338901335</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-4.882623763648758</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-4.26381496742712</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-24.43603009875054</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2.539408310146595</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-9.839559632764646</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-22.82298124390731</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-4.948297559710106</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-4.375489600103355</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-23.92700455828933</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2.725634471187267</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-9.467435992550611</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-22.74972864835923</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-5.012753655689338</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-4.3791941005618</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-23.34048165220712</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2.940212916628619</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-9.038657824204728</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-22.45565860324913</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-5.140032307129482</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-4.237350466386186</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-22.71637055812426</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3.168542939143089</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-8.582400772706578</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-22.18284974360505</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-5.192980723149024</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-4.238363493321203</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-22.0485758346705</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3.412854545981782</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-8.094208759429245</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-21.79090126129316</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-5.241498201930991</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-4.025074975862578</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-21.35092177871731</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3.668090140755479</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-7.584188050691989</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-21.62375981414406</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-5.222366228395933</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-3.82788233081589</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-20.6490790229688</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.924858164495176</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-7.071105188699729</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-21.06481479585131</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-5.35525292715303</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-3.706726295715182</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-19.92987987417148</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4.187975996230874</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-6.545333917877432</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-20.7485371142076</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-5.447429509899545</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-3.447758870905694</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-19.21173761719242</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4.450707165824294</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-6.020335288896181</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-20.40768793259827</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-5.391227266721807</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-3.284439727816828</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-18.50240890717225</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4.710213913684735</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-5.501779812403049</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-20.02286726837445</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-5.523412338288733</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-3.145466336623763</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-17.78836010994111</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.971447497727654</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-4.979773711343063</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-19.66679788562534</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-5.484457532804683</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-2.741953872478616</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-17.09282129564953</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>5.225909234800699</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-4.47129935217863</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-19.12206774724267</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-5.607863566636739</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-2.622909965431964</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-16.41118204979785</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>5.475285837504375</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-3.972986286690301</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-18.77609686153067</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-5.531258634328049</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-2.357563119368299</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-15.73555394756628</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>5.722463273150892</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-3.479067673872721</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-18.36261548531231</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-5.663777537958303</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-2.027382549463548</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-15.09121718608065</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>5.958192822988663</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-3.008024627603358</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-17.9687605154432</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-5.671559221340202</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-1.771288678182147</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-14.4647218685218</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>6.187395109760429</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-2.550024587102804</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-17.41436208505415</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-5.840137786381721</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-1.667721571531587</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-13.86211475277484</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>6.407857936988454</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-2.109488040886545</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-16.96214867064819</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-5.805334758320503</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-1.488263518938775</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-13.29637022311727</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>6.614834647415265</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-1.695899925805714</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-16.64722047425876</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-5.914275840564874</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-1.366650628553647</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-12.7534868731574</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>6.813447632658258</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-1.299024499445734</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-16.28406855816165</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-5.994127144725135</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-1.209505652895523</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-12.24414613300432</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>6.99978910899043</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-0.9266704321756652</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-15.73389972249578</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-6.018201158185294</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-1.008234415744452</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-11.76692620153091</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>7.174379240027598</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-0.577798314832244</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-15.30853110200728</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-6.084711605323469</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-0.9270532180304444</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-11.30787722446632</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>7.342321557128095</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-0.2422100922314047</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-15.16024169215211</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-6.084643679196439</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-0.8159877257334354</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-10.87933901668841</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>7.499101559210943</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.07107320138216772</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-14.51744744913334</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-6.098677051367266</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-0.92920838317651</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-10.47049942642386</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>7.648674854310097</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.3699558005834088</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-14.15195431197427</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-6.124621518422947</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-1.032894669466484</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-10.07463566127706</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>7.793500965022735</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.659352409605798</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-13.89260407708098</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-6.177914535282053</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-1.05298968088986</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-9.70303991168084</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>7.929448661956833</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.9310078611230638</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-13.45642146066217</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-6.172362816948491</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-1.057081515176399</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-9.342531494072228</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>8.061340076625871</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1.194557907289251</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-13.02891087196805</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-6.18717236937574</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-1.324278956196516</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-8.996485775900666</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>8.187940336371707</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>1.447534982289866</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-12.74742545612527</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-6.261880754515721</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-1.401090233798686</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-8.669175073651685</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>8.307686421199056</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>1.686815804803303</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-12.46691366219413</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-6.331278476236353</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-1.570030683213234</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-8.351400565009477</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>8.423943705199788</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>1.919125183260076</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-12.01262620669266</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-6.258843131249654</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-1.664497100176337</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-8.053785755682233</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>8.532825596194193</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>2.136696792983462</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-11.98174654243435</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-6.371955043367121</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-1.822751108590118</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-7.776930634445786</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>8.634112589270416</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>2.339092011567308</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-11.52554354242764</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-6.381177257662489</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-1.984355389089641</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-7.517796524397435</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>8.728916379401008</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>2.528532266858715</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-11.40518123177777</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-6.482698653079985</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-2.198792665850392</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-7.29138472308836</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>8.811748766424044</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>2.694050844991775</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-11.27965646075915</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-6.412944319192446</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-2.306527749334895</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-7.093145747557165</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>8.884274171236466</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>2.838973650122791</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-11.03234290977825</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-6.559303585388674</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-2.391949755884709</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-6.928494945743658</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>8.944511397655825</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>2.959341786620398</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-10.79461160979758</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-6.538285005093742</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-2.553467962200211</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-6.809380580255512</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>8.988089193358483</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>3.046420464926153</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-10.75631883358872</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-6.620604015746942</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-2.575526127128375</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-6.730685465775932</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>9.016879672219151</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>3.103950608581948</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-10.73662902860337</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-6.680828811032675</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-2.703511817676599</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-6.704035756236741</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>9.026629424846172</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>3.123432905905153</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-10.56682483873775</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-6.79279799031798</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-2.742632534314167</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-6.734235515969779</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>9.015580892164808</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>3.101355340769099</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-10.67234281159048</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-6.831394526900318</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-2.790304390079672</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-6.818194167134839</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>8.984864757020675</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>3.039977283254157</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-10.82703095521849</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-6.877760735537215</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-2.825263750974376</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-6.970686724130723</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>8.929075604572864</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>2.928497444023614</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-10.6002721477584</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-6.919624767339896</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-2.706918369036509</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-7.187572461249206</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>8.849728312546109</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>2.769942904827194</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-10.76860911204554</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-7.003458861972818</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-2.493941042858576</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-7.471398409789504</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>8.745891053707393</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>2.562451655837366</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-10.94503393091036</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-7.049302784962249</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-2.499271021176802</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-7.835727590261371</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>8.612601819196886</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>2.296108437085416</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-11.10955792008304</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-7.239102051944984</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-2.407721194833797</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-8.268087167502976</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>8.454423775348792</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>1.98003152743021</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-11.26564536217942</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-7.214566223657765</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-2.138626811219678</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-8.779382795789855</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>8.267367106391722</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>1.606248337197267</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-11.79573494409529</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-7.258675545305734</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-2.173073037555795</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-9.373266877768154</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>8.050095586794146</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>1.172088773709155</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-12.03726563376839</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-7.301654973816285</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-1.996544817765237</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-10.03790295523566</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>7.806939565420914</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>0.6862058917997413</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-12.53981756524362</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-7.413229436034156</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-1.731207903338191</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-10.78827134659822</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>7.532418517296089</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>0.1376483144286921</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-13.0171323110741</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-7.462921125609592</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-1.700565493826697</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-11.61725781108296</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>7.229135175765134</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-0.4683830854352979</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-13.45939666808521</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-7.542753377319588</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-1.449771805953668</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-12.52074598421203</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>6.898595506036516</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-1.128879035344796</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-14.18907421341514</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-7.583550471907464</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-1.253860342030678</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-13.51741685702054</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>6.533965098108426</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-1.857496292837932</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-14.87295077263149</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-7.724520379781078</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-1.139447888193466</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-14.58737927615788</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>6.14252109788556</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-2.639693409982297</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-15.73175322581614</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-7.774708675614492</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-1.157334765742148</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-15.74300751631237</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>5.719736397221679</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-3.484516612902125</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-16.69439811647067</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-7.935871281482448</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-1.000312280268977</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-16.99918332610751</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>5.260166532734424</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-4.402845219097888</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-17.68955745050028</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-8.071965418823185</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-0.9662566983064939</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-18.33186402851564</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>4.772607478472448</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-5.377102805021345</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-18.69981471687146</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-8.140408861295793</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-0.870393231125818</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-19.76678235626578</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>4.247644956274258</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-6.426101311163919</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-19.58838282970852</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-8.261994557760197</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-0.9569838602509952</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-21.30433039463216</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>3.685135522383852</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-7.55012737186501</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-21.15951877277372</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-8.36270456730665</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-0.905501566569789</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-22.92756850828766</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>3.091276514666716</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-8.736797249451813</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-22.61371593153885</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-8.407527941655834</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-1.011859463109954</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-24.66710749879387</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>2.45486902146112</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-10.00848900160812</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-24.05706739505561</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-8.575105424691069</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-1.322117169959371</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-26.50180953063249</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1.783646285302814</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-11.34974979213208</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-25.68225973235037</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-8.643610166351484</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-1.29664252203468</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-28.42892294883115</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1.078614994660808</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-12.75856802085131</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-27.49242664743644</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-8.666719131787382</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-1.559685228403011</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-30.47776381089553</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.3290499178675859</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-14.25637522148778</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-29.33775263471806</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-8.660891981292389</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-1.938944635927458</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-32.59761110609209</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-0.4464927462966267</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-15.8060917474438</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-31.26561006078948</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-8.755031794783539</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-2.193300470800741</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-34.80332879726611</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.253450954316334</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-17.41858391390856</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-33.56300228707182</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-8.807838974160903</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-2.595121246175321</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-37.1118167456776</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-2.098007492779648</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-19.10620638168253</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-35.55694373433717</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-8.819418307900936</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-2.97877705817592</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-39.44544029942112</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-2.95175985132338</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-20.81220425935572</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-37.77207170179617</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-8.847835451653973</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-3.52104441750854</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-41.86747832764479</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-3.837858500679843</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-22.58283762872024</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-40.05709440132655</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-8.861908585460133</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-4.137719598381819</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-44.28604183387805</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.722686001851601</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-24.35093094524203</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-42.45559160254114</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-8.917436951755695</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-4.781302893398296</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-46.76578381016811</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-5.629895546185079</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-26.16374884465928</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-44.78972560268471</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-8.836091272800783</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-5.263553372649469</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-49.16121788373943</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-6.506261182265002</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-27.91493336585727</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-47.03237537092533</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-8.817054975700749</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-5.882456550670677</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-51.71265343174045</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-7.439699702494124</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-29.78016292395249</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-49.53982765676447</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-8.712850912449287</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-6.448000355689914</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-37.15997795477205</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-2.115627192318909</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-19.14141468268271</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-37.55404577620538</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-2.259796259962747</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-19.42949836522273</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-37.96740930154325</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-2.41102462930579</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-19.73168819177065</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-38.34708908912276</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-2.54992985830787</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-20.00925348749583</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-38.67953631223096</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-2.671555130886488</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-20.25228936881915</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-38.92636476885285</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-2.761856917847199</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-20.43273356362975</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-39.06543850179609</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-2.812736815473062</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-20.53440355785853</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-39.07051868974037</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-2.814595393919579</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-20.53811743443353</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-38.92122301667103</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-2.759975816225118</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-20.42897468045614</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-38.61016352887926</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-2.646175211614481</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-20.20157432483683</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-38.13836532424941</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-2.473568610471264</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-19.85666576642887</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-37.5086437259245</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-2.243185994160516</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-19.39630715008568</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-36.73987624414892</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-1.961933668915189</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-18.83429889891363</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-35.85030936624432</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-1.636487082264518</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-18.18398012606822</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-34.86036932251491</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-1.274319137141118</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-17.46028344803424</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-33.80445960367674</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-0.8880162943277562</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-16.68835957176778</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-32.71764630466984</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-0.4904074272783253</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-15.89384360171834</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-31.64560224096229</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-0.09820186079571805</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-15.11012469618906</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-30.64016033783703</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.2696374142213993</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-14.37509536804238</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-29.74335849435852</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.597730901188447</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-13.71948746623943</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-28.99879350781936</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.8701287831549532</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-13.17517247388005</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-28.43487310273103</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>1.076438140592992</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-12.76291788692492</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-28.05749180762324</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>1.214502469885398</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-12.4870329064641</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-27.86317448223215</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>1.285593145411202</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-12.34497702766543</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-27.82702416721716</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>1.298818679005358</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-12.31854930302498</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-27.90905560698543</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>1.268807610997174</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-12.37851847068385</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-28.06475957368623</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>1.211843569563764</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-12.49234601425263</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-28.24489266564103</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>1.14594217263045</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-12.62403249473943</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-28.40045905126629</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1.089028465008397</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-12.7377594595227</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-28.49495396852266</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1.054457654155636</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-12.80684006510352</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-28.4989045161491</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1.053012352770927</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-12.8097281169727</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-28.39265280735664</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1.091884366569101</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-12.73205269695549</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-28.1797750417856</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1.169765348763617</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-12.57642818944423</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-27.86513962148186</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1.284874202432326</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-12.34641364471703</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-27.46398698630361</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1.431635237591598</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-12.0531506018671</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-27.00492337530968</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1.599582908491196</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-11.71755168111731</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-26.50830204946216</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1.781271007912924</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-11.35449615464046</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-26.00262526703514</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1.966272031306488</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-10.98482062740077</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-25.51599006277896</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>2.144306724484675</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-10.62906546529233</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-25.06454635890299</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>2.309466664833898</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-10.29903708540825</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-24.67002433452901</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>2.453801901880344</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-10.01062135734548</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-24.34309823317803</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>2.573407281098493</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-9.771621697710566</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-24.08592378033111</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>2.667494133848602</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-9.583614051813782</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-23.9060912875466</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>2.733285557067349</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-9.452147324656822</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-23.79812132996321</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>2.772786189374052</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-9.373215777109557</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-23.75644316551121</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>2.788034077639314</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-9.342746912503541</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-23.7795242278712</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>2.7795899087433</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-9.359620346668791</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-23.85547811110858</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>2.751802304847013</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-9.415146510430787</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-23.97817937552042</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>2.706912248042497</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-9.504847394850902</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-24.14437285173264</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>2.646110636718701</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-9.626343305040171</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-24.34269640407107</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>2.573554289619747</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-9.771327940132331</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-24.57243649638867</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>2.489504252777447</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-9.939279668799763</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-24.83004916113054</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>2.395257080922632</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-10.12760766994903</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-25.10454773458332</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>2.294832226996961</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-10.32828013187355</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-25.39681581247177</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>2.187906428950387</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-10.54194300812857</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-25.70000354889185</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>2.076985691698253</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-10.76358871188377</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-26.00588224703339</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>1.965080470503641</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-10.9872016459484</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-26.31332337243887</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>1.852603637851175</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-11.21195679405693</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-26.61036797303975</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1.743930356786254</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-11.42911155210969</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-26.89096933299506</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>1.641272808404846</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-11.63424546232757</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-27.15371184368825</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1.545148890802897</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-11.8263236425885</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-27.38773209259114</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>1.459532965677643</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-11.99740438409046</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-27.5948854639409</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>1.383746243741951</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-12.14884406737126</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-27.77339015922897</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>1.318440593064554</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-12.279340106815</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-27.91766748395382</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>1.265656969900216</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-12.38481419211985</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-28.03228565389886</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>1.223724099979713</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-12.46860592209076</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-28.11398071735314</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>1.193836094695577</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-12.52832918150242</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-28.16250375368008</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>1.17608402125538</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-12.56380199666973</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-28.18141130287367</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>1.16916672532202</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-12.57762437978054</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-28.16403508016433</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>1.175523787966882</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-12.56492147445695</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-28.1111682150747</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>1.194865044051947</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-12.52627309884492</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-28.02178952628085</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>1.227564091093565</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-12.46093271729671</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-27.88954517416023</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>1.275945470920637</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-12.36425534887962</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-27.72036226900671</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>1.337840759930897</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-12.24057401361563</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-27.5135819802378</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>1.413490990214872</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-12.08940707273586</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-27.27203906351844</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>1.501859071051166</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-11.91282687725866</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-27.00652369566867</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>1.598997433906523</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-11.71872159694698</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-26.72023285012637</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>1.70373647128002</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-11.50942838249132</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-26.42343602293979</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>1.81231910484676</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-11.29245475944565</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-26.12841455760422</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>1.920252225185394</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-11.07677901649082</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-25.84160674898268</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>2.025180392655506</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-10.86710787564913</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-25.57841843015804</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>2.121467408432855</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-10.67470378689928</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-25.35037591573274</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>2.204896389181066</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-10.50799307428039</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-25.16676370341375</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>2.272070616606606</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-10.37376317930501</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-25.04417822707456</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>2.316918312534216</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-10.28414694187343</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-24.99641181781901</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>2.334393575198441</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-10.2492272596979</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-25.03684637678712</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>2.319600657964498</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-10.2787869852473</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-25.18345285084483</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>2.265964919328008</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-10.38596379754608</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-25.45373243454578</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>2.167083575899354</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-10.58355196271203</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-25.8610812922767</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>2.018055662858291</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-10.88134476037502</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-26.42786426742201</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>1.810699038849035</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-11.29569203208818</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-27.17193425596094</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>1.53848225109093</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-11.83964515565492</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-28.10208990693443</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>1.198186328229897</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-12.51963639242528</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-29.23418984228923</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.7840094193767593</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-13.34725920413842</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-30.58467187308811</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.2899377782519911</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-14.33453046932719</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-32.12119668753517</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-0.2721973108418658</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-15.45780850113906</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-33.88148340836212</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-0.9161953272350432</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-16.74466790269493</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-35.76500807635883</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-1.605279744941526</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-18.12162053114814</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-37.84586978278813</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-2.366559595248777</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-19.64283660269707</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-39.90754027816817</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-3.120818372396935</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-21.15002291984645</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-42.18959020602538</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-3.955702604301964</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-22.81831784574542</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-19.63110219987627</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>4.297283319470972</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-6.32691219453388</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-18.641790373865</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>4.65922143217017</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-5.603674775703087</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-17.55441190609032</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>5.05703706528849</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-4.808745638449872</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-16.46734971080642</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>5.454736990633585</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-4.014047712523426</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-15.36924145216659</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>5.856478100182369</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-3.211274550721157</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-14.28233151667977</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>6.254122321529851</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-2.416687934474566</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-13.21182871138181</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>6.645764021145326</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-1.634095767476653</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-12.18432390908674</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>7.02167497172139</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-0.8829373344027334</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-11.21030267935227</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>7.378019044793282</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-0.1708781215661038</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-10.31771956049582</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>7.704569118260601</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>0.4816456773016582</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-9.530452322527948</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>7.992589549037051</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>1.057178194095252</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-8.861496245785233</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>8.237326035076146</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>1.546219215878271</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-8.327617652656057</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>8.432644644767441</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>1.93651170557844</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-7.926988843974637</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>8.579214038860005</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>2.229391804533918</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-7.641017889010768</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>8.683836044788833</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>2.438451162656146</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-7.447809462629047</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>8.754521031426592</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>2.579696379703702</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-7.316932752040486</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>8.80240206183708</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>2.675373932384707</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-7.217334455489283</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>8.838839935654013</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>2.748185368600993</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-7.126333926249593</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>8.872132330368869</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>2.81471139826032</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-7.024120282933086</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>8.909527024520299</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>2.889434786395256</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-6.897552112196492</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>8.955831782676169</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>2.981962576625701</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-6.74847891538439</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>9.010369967795967</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>3.090942689108467</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-6.580769944580273</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>9.071726020336348</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>3.213546503163912</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-6.403881513187616</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>9.136440363512358</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>3.342860971239416</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-6.23545279804593</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>9.198059733340894</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>3.46599095512649</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-6.087027625584343</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>9.252360839812443</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>3.574497328747269</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-5.971378715603507</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>9.294670804288403</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>3.659042582271997</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-5.903671203393795</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>9.319441486838054</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>3.708540228088522</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-5.892575382473335</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>9.323500874765308</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>3.716651839282616</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-5.948753237310124</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>9.302948298499141</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>3.675582961240976</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-6.082235043594594</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>9.254114198091116</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>3.578000950696048</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-6.294795449025741</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>9.176349321584475</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>3.422608449638553</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-6.588003225025593</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>9.069079736521507</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>3.208258606121333</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-6.960307892150968</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>8.932872683269395</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>2.936084899721763</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-7.401644830116922</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>8.77141028669028</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>2.613445081358221</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-7.902858366254173</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>8.588042134648457</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>2.247032414868141</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-8.452511154262055</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>8.386952561572679</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>1.845208183922941</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-9.034867626998073</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>8.173898398953343</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>1.419475890921721</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-9.640397191149054</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>7.952366398758818</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>0.976802885820798</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-10.25757797112334</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>7.726571820320647</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>0.5256122475159323</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-10.87388784025424</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>7.501095863189423</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>0.0750582894708567</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-11.48750589912684</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>7.276604700436496</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-0.3735278179410644</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-12.09072831205436</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>7.055916767741797</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-0.8145141777883543</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-12.67815769510805</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>6.841006689183732</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-1.243955027048223</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-13.25326016993545</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>6.630606389829283</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-1.664384277484205</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-13.81214951428658</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>6.426137637729439</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-2.072960902359145</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-14.35236961940837</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>6.228498996252495</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-2.467889360865543</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-14.87531763197102</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>6.037179321575356</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-2.850191038500797</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-15.37495028445988</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>5.854389533229441</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-3.21544799838829</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-15.85001222432478</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>5.680588899891047</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-3.562742513766623</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-16.30081900143888</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>5.515661978155424</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-3.89230526769222</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-16.71894096132333</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>5.362692743319912</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-4.197973752665789</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-17.10539289464928</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>5.221309935878007</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-4.48048983244188</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-17.45762937135755</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>5.09244479725168</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-4.737992667781119</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-17.76559824976189</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>4.979774887028159</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-4.963133630257428</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-18.02907848386478</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>4.883381074523935</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-5.155751123968996</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-18.24342407692831</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>4.804963090043154</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-5.312448688264822</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-18.40194447256156</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>4.746968662693437</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-5.428335185075503</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-18.50906256086293</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>4.707779685369614</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-5.506643972715824</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-18.56309330198537</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>4.688012627142442</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-5.546143201087993</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-18.56567431536876</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>4.687068367619536</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-5.5480300535528</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-18.52806661087978</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>4.700827084767969</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-5.520536902851851</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-18.4501279185043</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>4.729340827839614</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-5.463559742346292</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-18.34031453311883</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>4.76951587519124</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-5.383280555025276</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-18.21024732183876</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>4.817100751604334</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-5.288194787638875</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-18.06080906027439</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>4.871772495066379</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-5.178947794196849</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-17.90247423177021</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>4.92969903298558</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-5.06319695642502</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-17.74066528239343</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>4.988896572341188</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-4.944906359048042</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-17.57306254466535</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>5.050213759684532</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-4.822380206791122</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-17.40787412237326</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>5.110647673676254</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-4.701619042294636</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-17.24311338558608</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>5.170925119625841</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-4.581170537722466</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-17.07440180889071</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>5.232647973890934</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-4.457833767608248</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-16.90677474283772</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>5.293974061712139</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-4.335289830104602</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-16.7319726499409</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>5.357925121363401</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-4.207500581913123</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-16.5475445162331</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>5.425397852293917</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-4.072674206774768</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-16.35442709568947</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>5.496049544594726</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-3.93149551963791</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-16.14452458715315</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>5.572842033871608</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-3.778046076814624</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-15.91711161411848</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>5.6560406979322</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-3.611795591071055</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-15.66903344986536</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>5.746799688384856</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-3.430437796222796</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-15.3916905953441</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>5.848265117885231</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-3.227686019723931</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-15.08527567524802</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>5.96036651500447</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-3.003681080052863</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-14.74637321024343</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>6.084353427267933</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-2.755926087561225</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-14.37059267489105</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>6.221832121223207</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-2.48121134415128</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-13.96459440908737</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>6.370365922417712</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-2.184405898093378</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-13.53082597620398</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>6.529059393796994</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-1.867299043085168</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-13.07651805810253</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>6.695267202233791</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-1.535176776471996</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-12.61533033186755</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>6.863991977218562</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-1.198025019110076</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-12.15786469974281</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>7.031355030163697</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-0.863594302441455</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-11.72235899624594</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>7.190684079154162</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-0.5452174139804238</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-11.32698449252678</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>7.335331194374093</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-0.2561784800234277</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-10.98733463501203</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>7.459591538964418</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-0.007877105475397501</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-10.72621368673082</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>7.555122210611366</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>0.183015629931366</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-10.55838957497598</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>7.616520387280158</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>0.3057036178961994</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-10.49549317811465</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>7.639530931152206</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>0.3516840929332225</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-10.55621921174112</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>7.617314411118185</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>0.3072902641513354</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-10.73284263056774</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>7.552697022355809</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>0.1781695337823656</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-11.04556130298336</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>7.438289407765526</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-0.05044377044744228</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-11.46148984110744</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>7.286122632691868</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-0.3545087522072987</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-12.01531677177664</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>7.083505956353749</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-0.7593844943998388</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-12.62555408849451</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>6.860251632586094</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-1.205499106813494</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-13.39683888503646</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>6.578078351852667</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-1.769347643511443</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>